--- a/medicine/Psychotrope/Sabrevois_(cépage)/Sabrevois_(cépage).xlsx
+++ b/medicine/Psychotrope/Sabrevois_(cépage)/Sabrevois_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sabrevois_(c%C3%A9page)</t>
+          <t>Sabrevois_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sabrevois, également appelé ES 2-1-9 (ES 219), est un cépage de raisin hybride rouge créé par Elmer Swenson dans l'État américain du Wisconsin. Le cépage a été nommé ainsi en l'honneur du village de Sainte-Anne-de-Sabrevois, situé au sud-est de Montréal, au Québec, où le premier vin de qualité fabriqué avec ce cépage a été produit[1],[2]. Il s'agit d'un mélange entre l'Elmer swenson 283 et l'Elmer swenson 193. Sa caractéristique principale est sa résistance au froid, alors que la vigne peut résister à des températures allant jusqu'à -35 degrés Celsius[3],[4].
+Le sabrevois, également appelé ES 2-1-9 (ES 219), est un cépage de raisin hybride rouge créé par Elmer Swenson dans l'État américain du Wisconsin. Le cépage a été nommé ainsi en l'honneur du village de Sainte-Anne-de-Sabrevois, situé au sud-est de Montréal, au Québec, où le premier vin de qualité fabriqué avec ce cépage a été produit,. Il s'agit d'un mélange entre l'Elmer swenson 283 et l'Elmer swenson 193. Sa caractéristique principale est sa résistance au froid, alors que la vigne peut résister à des températures allant jusqu'à -35 degrés Celsius,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sabrevois_(c%C3%A9page)</t>
+          <t>Sabrevois_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Types de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sabrevois peut être utilisé pour la fabrication de vins rosés et de vins rouges secs[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sabrevois peut être utilisé pour la fabrication de vins rosés et de vins rouges secs.  
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sabrevois_(c%C3%A9page)</t>
+          <t>Sabrevois_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sabrevois est un cépage utilisé entre autres dans l'État américain du Minnesota, connu sous le nom de ES 2-1-9 à cet endroit. Depuis environ l'année 2000 il est cultivé au Québec. Il possède des racines communes avec le cépage sainte-croix, qui est également utilisé dans les régions du Nord des États-Unis et au Québec. 
 </t>
